--- a/src/main/webapp/template/import/场景表（电影）.xlsx
+++ b/src/main/webapp/template/import/场景表（电影）.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>《剧本名称》场景表</t>
   </si>
@@ -99,9 +99,6 @@
     <t>拍摄状态</t>
   </si>
   <si>
-    <t>1b</t>
-  </si>
-  <si>
     <t>特殊提示</t>
   </si>
   <si>
@@ -133,6 +130,10 @@
   </si>
   <si>
     <t>多个特殊道具以空格或，或、隔开</t>
+  </si>
+  <si>
+    <t>未完成</t>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -277,7 +278,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -338,10 +339,13 @@
     <xf numFmtId="49" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -695,7 +699,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="X24" sqref="X24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -719,35 +723,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" s="1" customFormat="1" ht="24.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="21"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
     </row>
     <row r="2" spans="1:24" s="2" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
@@ -821,20 +825,20 @@
       </c>
     </row>
     <row r="3" spans="1:24" s="3" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="11">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="C3" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="D3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>29</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>6</v>
@@ -846,10 +850,10 @@
         <v>8</v>
       </c>
       <c r="I3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="17" t="s">
         <v>30</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>31</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>11</v>
@@ -864,22 +868,22 @@
         <v>14</v>
       </c>
       <c r="O3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="13" t="s">
+      <c r="R3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="S3" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="T3" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="T3" s="13" t="s">
-        <v>36</v>
       </c>
       <c r="U3" s="13" t="s">
         <v>21</v>
@@ -887,11 +891,11 @@
       <c r="V3" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="13" t="s">
-        <v>23</v>
+      <c r="W3" s="22">
+        <v>42964</v>
       </c>
       <c r="X3" s="13" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="14.25" x14ac:dyDescent="0.15">
